--- a/docs/studywork/StudyWork.xlsx
+++ b/docs/studywork/StudyWork.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/studywork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD032CA6-4056-DC44-82C4-531975E9F665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8791A8F-B61E-3E46-91A4-19D7191421B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="60160" windowHeight="33380" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$26</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Haskell</t>
   </si>
@@ -90,17 +93,10 @@
     <t>Sprache</t>
   </si>
   <si>
-    <t>Mnr</t>
-  </si>
-  <si>
     <t>Präsentation</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Abgabe der 
-schriftlichen Ausarbeitung</t>
   </si>
   <si>
     <t>Präsentation 
@@ -120,6 +116,13 @@
   </si>
   <si>
     <t>Example: Single Process Raft</t>
+  </si>
+  <si>
+    <t>Matrikelnummer</t>
+  </si>
+  <si>
+    <t>Abgabe der 
+schriftlichen Ausarbeitung + Code</t>
   </si>
 </sst>
 </file>
@@ -142,44 +145,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,72 +184,139 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="22"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -269,140 +329,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="26"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -424,16 +351,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G22" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Standard">
+  <autoFilter ref="A1:G24" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Mnr" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F0B46B20-5AC0-45BE-B31C-63EEE68EBD0C}" name="Präsentation" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7E6DE642-C221-5345-B46F-06A050B0AAA3}" name="Abgabe der _x000a_schriftlichen Ausarbeitung" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FDD33C0B-EB12-534A-8540-A8A0B10F605D}" name="Präsentation _x000a_OK" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="6" dataCellStyle="Standard"/>
+    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="5" dataCellStyle="Standard"/>
+    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="4" dataCellStyle="Standard"/>
+    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Matrikelnummer" dataDxfId="3" dataCellStyle="Standard"/>
+    <tableColumn id="5" xr3:uid="{F0B46B20-5AC0-45BE-B31C-63EEE68EBD0C}" name="Präsentation" dataDxfId="2" dataCellStyle="Standard"/>
+    <tableColumn id="6" xr3:uid="{7E6DE642-C221-5345-B46F-06A050B0AAA3}" name="Abgabe der _x000a_schriftlichen Ausarbeitung + Code" dataDxfId="1" dataCellStyle="Standard"/>
+    <tableColumn id="7" xr3:uid="{FDD33C0B-EB12-534A-8540-A8A0B10F605D}" name="Präsentation _x000a_OK" dataDxfId="0" dataCellStyle="Standard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,315 +666,355 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="1"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="1"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="1"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:K14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:K15">
     <sortCondition ref="K1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/docs/studywork/StudyWork.xlsx
+++ b/docs/studywork/StudyWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/studywork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8791A8F-B61E-3E46-91A4-19D7191421B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE67612-BFB9-3944-8EFC-B639D65154DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="60160" windowHeight="33380" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="5460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Haskell</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Smalltalk</t>
-  </si>
-  <si>
-    <t>Eiffel</t>
   </si>
   <si>
     <t>Objective C</t>
@@ -123,6 +120,48 @@
   <si>
     <t>Abgabe der 
 schriftlichen Ausarbeitung + Code</t>
+  </si>
+  <si>
+    <t>Victor Wolf</t>
+  </si>
+  <si>
+    <t>Veronika Holzmayer</t>
+  </si>
+  <si>
+    <t>Eifel</t>
+  </si>
+  <si>
+    <t>Markus Doellerer</t>
+  </si>
+  <si>
+    <t>Markus Kaleta</t>
+  </si>
+  <si>
+    <t>Alexander Hauenstein</t>
+  </si>
+  <si>
+    <t>Alexander Hennecke</t>
+  </si>
+  <si>
+    <t>Michael Bichler</t>
+  </si>
+  <si>
+    <t>Lukas Kiederle</t>
+  </si>
+  <si>
+    <t>Max Bundscherer</t>
+  </si>
+  <si>
+    <t>Markus Voit</t>
+  </si>
+  <si>
+    <t>Florian Kallabinski</t>
+  </si>
+  <si>
+    <t>Tobias Lautenschlager</t>
+  </si>
+  <si>
+    <t>Simon Treutlein</t>
   </si>
 </sst>
 </file>
@@ -167,12 +206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -201,6 +246,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -669,7 +715,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,38 +732,38 @@
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -731,7 +777,9 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -745,7 +793,9 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -757,9 +807,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -767,11 +819,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -781,13 +831,13 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -796,7 +846,7 @@
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -823,7 +873,9 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -835,9 +887,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -849,9 +903,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -865,7 +921,9 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -874,12 +932,14 @@
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -888,7 +948,7 @@
     </row>
     <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -900,12 +960,14 @@
     </row>
     <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -914,12 +976,14 @@
     </row>
     <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -927,13 +991,13 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -941,7 +1005,7 @@
     </row>
     <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -961,12 +1025,14 @@
     </row>
     <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -974,12 +1040,14 @@
     </row>
     <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -987,12 +1055,14 @@
     </row>
     <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1000,7 +1070,7 @@
     </row>
     <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>

--- a/docs/studywork/StudyWork.xlsx
+++ b/docs/studywork/StudyWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/studywork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE67612-BFB9-3944-8EFC-B639D65154DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD907A0-38F8-A04C-AE76-9DF1F5AE65D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="5460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="8460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Haskell</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Simon Treutlein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philipp Prommersberger </t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -247,6 +250,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -714,8 +718,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,13 +761,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>

--- a/docs/studywork/StudyWork.xlsx
+++ b/docs/studywork/StudyWork.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/studywork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD907A0-38F8-A04C-AE76-9DF1F5AE65D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDAD71D-F732-194C-BC57-DADD049EC009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="8460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView xWindow="21680" yWindow="4960" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +208,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -251,6 +258,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Standard">
-  <autoFilter ref="A1:G24" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Standard">
+  <autoFilter ref="A1:G23" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="6" dataCellStyle="Standard"/>
     <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="5" dataCellStyle="Standard"/>
@@ -716,10 +724,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,11 +833,15 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -837,13 +849,11 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -851,9 +861,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -863,9 +871,15 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -877,10 +891,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -893,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -909,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -921,14 +935,14 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
+      <c r="A13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -937,15 +951,11 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -954,25 +964,29 @@
     </row>
     <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -980,39 +994,32 @@
       <c r="G16" s="5"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1020,73 +1027,64 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>42</v>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:K15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:K14">
     <sortCondition ref="K1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/studywork/StudyWork.xlsx
+++ b/docs/studywork/StudyWork.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/studywork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDAD71D-F732-194C-BC57-DADD049EC009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB30DB-424F-E448-A1E5-8DBE82913BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21680" yWindow="4960" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView xWindow="6760" yWindow="9500" windowWidth="60160" windowHeight="33380" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Haskell</t>
   </si>
@@ -90,20 +90,10 @@
     <t>Sprache</t>
   </si>
   <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Präsentation 
-OK</t>
-  </si>
-  <si>
     <t>JavaScript</t>
-  </si>
-  <si>
-    <t>C++17</t>
   </si>
   <si>
     <t>Example: Boolparser + AST</t>
@@ -165,13 +155,71 @@
   </si>
   <si>
     <t xml:space="preserve">Philipp Prommersberger </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation </t>
+  </si>
+  <si>
+    <t>https://github.com/VictorW96/KP-seminar-paper-Fsharp/blob/master/Presentation/BooleanParserinF%23.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/VictorW96/KP-seminar-paper-Fsharp</t>
+  </si>
+  <si>
+    <t>https://github.com/sWMAveholz/KP-Haskell</t>
+  </si>
+  <si>
+    <t>https://github.com/m-voit/concepts-of-programming-languages/tree/1.0.0</t>
+  </si>
+  <si>
+    <t>https://github.com/simonmtr/objective-c-bool-parser</t>
+  </si>
+  <si>
+    <t>https://github.com/simonmtr/objective-c-bool-parser/blob/master/presentation/presentation.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Kaleta92/kaleta/releases/tag/1.0
+https://github.com/Kaleta92/kaleta/</t>
+  </si>
+  <si>
+    <t>https://github.com/Kaleta92/kaleta/blob/master/SmallTalk/CoProgrammingLanguage.adoc</t>
+  </si>
+  <si>
+    <t>https://github.com/anderha/typescript-bool-parser</t>
+  </si>
+  <si>
+    <t>per Mail</t>
+  </si>
+  <si>
+    <t>https://github.com/alex-inf/ruby-boolparser (Code OK) - Dokument per Mail</t>
+  </si>
+  <si>
+    <t>https://github.com/LukasKiederle/seminar-compare-go</t>
+  </si>
+  <si>
+    <t>https://github.com/LukasKiederle/seminar-compare-go/blob/master/Comparing%20Raft%20algorithm%20in%20go%20and%20Python.pptx</t>
+  </si>
+  <si>
+    <t>angefordert</t>
+  </si>
+  <si>
+    <t>https://github.com/maxbundscherer/prototype-scala-raft</t>
+  </si>
+  <si>
+    <t>https://github.com/Javatar97/KP-Project</t>
+  </si>
+  <si>
+    <t>https://github.com/Javatar97/KP-Project/blob/master/presentation/Go%20compared%20to%20Kotlin.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,8 +257,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FFFFFF00"/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,8 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,10 +301,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -256,28 +320,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -409,16 +470,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Standard">
-  <autoFilter ref="A1:G23" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="6" dataCellStyle="Standard"/>
-    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="5" dataCellStyle="Standard"/>
-    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="4" dataCellStyle="Standard"/>
-    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Matrikelnummer" dataDxfId="3" dataCellStyle="Standard"/>
-    <tableColumn id="5" xr3:uid="{F0B46B20-5AC0-45BE-B31C-63EEE68EBD0C}" name="Präsentation" dataDxfId="2" dataCellStyle="Standard"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Standard">
+  <autoFilter ref="A1:F24" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="5" dataCellStyle="Standard"/>
+    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="4" dataCellStyle="Standard"/>
+    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="3" dataCellStyle="Standard"/>
+    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Matrikelnummer" dataDxfId="2" dataCellStyle="Standard"/>
     <tableColumn id="6" xr3:uid="{7E6DE642-C221-5345-B46F-06A050B0AAA3}" name="Abgabe der _x000a_schriftlichen Ausarbeitung + Code" dataDxfId="1" dataCellStyle="Standard"/>
-    <tableColumn id="7" xr3:uid="{FDD33C0B-EB12-534A-8540-A8A0B10F605D}" name="Präsentation _x000a_OK" dataDxfId="0" dataCellStyle="Standard"/>
+    <tableColumn id="7" xr3:uid="{FDD33C0B-EB12-534A-8540-A8A0B10F605D}" name="Präsentation " dataDxfId="0" dataCellStyle="Standard"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,10 +784,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,13 +796,12 @@
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -753,344 +812,404 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="37" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:K14">
-    <sortCondition ref="K1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:J15">
+    <sortCondition ref="J1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{197BF1FC-622B-0948-9653-B688DC059DC1}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{42378FE0-66F8-924C-ADF3-76AD45568A56}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{4FCAC0F7-FC1F-4F4D-AE74-C342178F8D69}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{CEF4BD45-8EE0-B741-ACC1-EE8BEDE7AB4F}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{447DB6A0-03BA-5B43-92A7-B0CAC59F584A}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{7E5118A8-A001-A544-802C-F00A2685D07E}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{62452494-9ED2-5E48-BCD1-15DB7C20272F}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://github.com/Kaleta92/kaleta/releases/tag/1.0" xr:uid="{F9DE65EB-8FBA-D745-98AC-B24C7DE62F45}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{06F16DBF-5B2E-FA44-A551-B3B75F4702DC}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{379C0CC5-9573-3348-BB9B-E967512782F4}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{400E4839-596C-5347-9249-906D71A7C64E}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{E3779A0E-F5C0-CA48-A361-F6764888BD91}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{1D458219-6C95-124F-8EF9-18F3298A3E38}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{D6B5556E-A429-DD40-9462-35F37AC5930B}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{F7EB7FC2-4C0D-C246-BFD4-7001AF057348}"/>
+    <hyperlink ref="F23" r:id="rId16" xr:uid="{E1F3551E-D364-6C40-838B-5C1209947EA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>